--- a/OnBoard/output/trust/catch/Catch_Trust_29.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_29.xlsx
@@ -1392,7 +1392,7 @@
         <v>0.075</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I25">
         <v>12.1705</v>
@@ -1638,7 +1638,7 @@
         <v>0.446</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I31">
         <v>12.1705</v>
@@ -1843,7 +1843,7 @@
         <v>0.973</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36">
         <v>12.1705</v>
